--- a/results/input_sweep_demo-1/h3000_M0.35_R1000km_PL1000kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_demo-1/h3000_M0.35_R1000km_PL1000kg/ReqPowDATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,265 +434,214 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Start_min</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>End_min</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Duration_min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ReqPow_AC_kW</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ReqPow_FC_kW</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ReqPow_Batt_kW</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ready</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>35.34088366766723</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35.34088366766723</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>taxi</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70.68176733533446</v>
+      </c>
+      <c r="F3" t="n">
+        <v>70.68176733533446</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
+      <c r="E4" t="n">
+        <v>458.4967669347069</v>
+      </c>
+      <c r="F4" t="n">
+        <v>344.6229504724751</v>
+      </c>
+      <c r="G4" t="n">
+        <v>113.8738164622318</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>climb</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
+      <c r="C5" t="n">
+        <v>14.20209973753281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.20209973753281</v>
+      </c>
+      <c r="E5" t="n">
+        <v>706.8176733533446</v>
+      </c>
+      <c r="F5" t="n">
+        <v>531.3071497397018</v>
+      </c>
+      <c r="G5" t="n">
+        <v>175.5105236136428</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cruise</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14.20209973753281</v>
+      </c>
+      <c r="C6" t="n">
+        <v>138.7070740415007</v>
+      </c>
+      <c r="D6" t="n">
+        <v>124.5049743039679</v>
+      </c>
+      <c r="E6" t="n">
+        <v>573.7148230859694</v>
+      </c>
+      <c r="F6" t="n">
+        <v>573.7148230859694</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>loiter</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>138.7070740415007</v>
+      </c>
+      <c r="C7" t="n">
+        <v>153.7070740415007</v>
+      </c>
+      <c r="D7" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ReqPow_AC</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>69.24552566815642</v>
-      </c>
-      <c r="C2" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1348.622495502203</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1384.910513363128</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1384.910513363128</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="K2" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1384.910513363128</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1384.910513363128</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="R2" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="S2" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="T2" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="U2" t="n">
-        <v>69.24552566815642</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ReqPow_FC</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>69.24552566815642</v>
-      </c>
-      <c r="C3" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1087.911680060062</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1124.199697920987</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1124.199697920987</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="K3" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1124.199697920987</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1124.199697920987</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1533.709345495405</v>
-      </c>
-      <c r="R3" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="S3" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="T3" t="n">
-        <v>138.4910513363128</v>
-      </c>
-      <c r="U3" t="n">
-        <v>69.24552566815642</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ReqPow_Batt</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>260.710815442141</v>
-      </c>
-      <c r="E4" t="n">
-        <v>260.710815442141</v>
-      </c>
-      <c r="F4" t="n">
-        <v>260.710815442141</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>260.710815442141</v>
-      </c>
-      <c r="M4" t="n">
-        <v>260.710815442141</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="E7" t="n">
+        <v>57.37148230859695</v>
+      </c>
+      <c r="F7" t="n">
+        <v>57.37148230859695</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>153.7070740415007</v>
+      </c>
+      <c r="C8" t="n">
+        <v>154.7070740415007</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
